--- a/2017 processed/Journal of Educational Psychology.xlsx
+++ b/2017 processed/Journal of Educational Psychology.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tabetha\OneDrive\Dr. B's Lab\Outliers Project\Journal of Educational Psychology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Outliers/2017 processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Journal of Educational Psych" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tabetha Hopke:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 with, without, or both
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>Type</t>
   </si>
@@ -334,13 +334,6 @@
     <t>In peer matters, teachers matter: Peer group influences on students’ engagement depend on teacher involvement</t>
   </si>
   <si>
-    <t xml:space="preserve"> At the first time point, homeroom teachers reported on 318 students (93% of the consenting students; 87% of the population). At the second time point, homeroom teachers reported on 322 students. Missing data and differences in sample size at the two measurement points are due to a combination of student attrition and new students entering the school. Three hundred students had teacher reports at both time points.
-</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>It’s all a matter of perspective: Viewing first-person video modeling examples promotes learning of an assembly task</t>
   </si>
   <si>
@@ -374,9 +367,6 @@
   </si>
   <si>
     <t xml:space="preserve">descriptives; longitudinal mixed functional data analysis </t>
-  </si>
-  <si>
-    <t>Seventy-nine adults originally; . Nineteen adults were not included in the analyses because of computer error resulting in the loss of all data (n   13) or because their data exceeded our exclusion criteria (n   6; see the Exclusion Criteria section for details). Thus, data from a final sample of 60 adults (Mage   20.9 years; age range   18 to 33 years old; 35% males) were included in the WM analyses. Additionally, data from three adults were excluded from analyses involving the math assessments (see Exclusion Criteria), resulting in data from 57 adults</t>
   </si>
   <si>
     <t>RQ #1 and #2: descriptives and ANOVA; RQ #3: descriptives, ANCOVA, ANOVA</t>
@@ -532,6 +522,13 @@
   </si>
   <si>
     <t xml:space="preserve">descriptives; correlations; chi-square; bidirectional model; state-trait model; cross-lagged paths; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340
+</t>
+  </si>
+  <si>
+    <t>SEM models</t>
   </si>
 </sst>
 </file>
@@ -550,14 +547,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1003,34 +1000,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1162,7 +1159,7 @@
       <c r="P2" s="16"/>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1190,7 +1187,7 @@
       <c r="P3" s="16"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:34" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1218,7 +1215,7 @@
       <c r="P4" s="16"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="P5" s="16"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:34" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1274,7 +1271,7 @@
       <c r="P6" s="16"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:34" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1302,7 +1299,7 @@
       <c r="P7" s="16"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:34" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1330,7 +1327,7 @@
       <c r="P8" s="16"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1359,7 +1356,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1388,7 +1385,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1417,7 +1414,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -1446,7 +1443,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:34" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1474,7 +1471,7 @@
       <c r="P13" s="16"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:34" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1503,7 +1500,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:34" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>11</v>
       </c>
@@ -1519,256 +1516,271 @@
       <c r="E15" s="23" t="s">
         <v>79</v>
       </c>
+      <c r="F15" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="G15" s="23" t="s">
-        <v>81</v>
+        <v>135</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="P15" s="24"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:34" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>11</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="22">
-        <v>280</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>11</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="22" t="s">
+    <row r="16" spans="1:34" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="F16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="6">
+        <v>105</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="G17" s="6">
+        <v>121</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="4">
+        <v>182</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="6">
-        <v>105</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="6">
-        <v>121</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4">
+        <v>122</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="16"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="4">
-        <v>182</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="F20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="6">
+        <v>176</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="P20" s="16"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="4">
-        <v>122</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="6">
-        <v>176</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="G21" s="22">
+        <v>57</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>16</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="22" t="s">
+      <c r="F22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="22">
+        <v>209</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="R23" s="25"/>
-    </row>
-    <row r="24" spans="1:18" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>16</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="F23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4215</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="22">
-        <v>209</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="R24" s="25"/>
-    </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="6">
+        <v>245</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>42</v>
@@ -1777,23 +1789,26 @@
         <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G25" s="4">
-        <v>4215</v>
+        <v>141</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="P25" s="16"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
@@ -1801,27 +1816,28 @@
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>103</v>
+      <c r="D26" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G26" s="6">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="P26" s="16"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
@@ -1830,16 +1846,16 @@
         <v>43</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G27" s="4">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>34</v>
@@ -1847,9 +1863,9 @@
       <c r="P27" s="16"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -1858,27 +1874,42 @@
         <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G28" s="6">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>34</v>
+        <v>131</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>42</v>
@@ -1887,16 +1918,16 @@
         <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="4">
-        <v>536</v>
+        <v>129</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>34</v>
@@ -1904,9 +1935,9 @@
       <c r="P29" s="16"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
@@ -1915,42 +1946,47 @@
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G30" s="6">
-        <v>153</v>
+        <v>1420</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="N30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="P30" s="16"/>
-      <c r="Q30" s="2"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
@@ -1959,99 +1995,22 @@
         <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="P31" s="16"/>
       <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>24</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1420</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>25</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="R33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2017 processed/Journal of Educational Psychology.xlsx
+++ b/2017 processed/Journal of Educational Psychology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Journal of Educational Psych" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
   <si>
     <t>Type</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Working memory strategies during rational number magnitude processing</t>
   </si>
   <si>
-    <t xml:space="preserve">no? but also remove some people for being 3sd away from the mean at one point </t>
-  </si>
-  <si>
     <t>Phonological processing in children with specific reading disorder versus typical learners: Factor structure and measurement invariance in a transparent orthography</t>
   </si>
   <si>
@@ -529,6 +526,18 @@
   </si>
   <si>
     <t>SEM models</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>At the group level, participants
+who scored below chance on the comparison task (n _x0002_ 2) or who
+had RTs greater than three standard deviations away from the
+group RT performance (n _x0002_ 2) were excluded</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -691,6 +700,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,29 +1015,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="71.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="10"/>
+    <col min="16" max="16" width="11" style="17"/>
+    <col min="17" max="17" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1517,10 +1518,10 @@
         <v>79</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>34</v>
@@ -1669,33 +1670,48 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+    <row r="21" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>15</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="B21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="27">
+        <v>60</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="27">
         <v>57</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21" s="24"/>
-      <c r="R21" s="25"/>
+      <c r="P21" s="28"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
@@ -1708,19 +1724,34 @@
         <v>43</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="F22" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="22">
         <v>209</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>108</v>
+        <v>136</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="22">
+        <v>209</v>
       </c>
       <c r="P22" s="24"/>
       <c r="R22" s="25"/>
@@ -1736,13 +1767,13 @@
         <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4">
         <v>4215</v>
@@ -1761,19 +1792,19 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="G24" s="6">
         <v>245</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P24" s="16"/>
       <c r="R24" s="14"/>
@@ -1789,13 +1820,13 @@
         <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="G25" s="4">
         <v>141</v>
@@ -1817,13 +1848,13 @@
         <v>43</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="F26" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G26" s="6">
         <v>115</v>
@@ -1846,13 +1877,13 @@
         <v>43</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="4">
         <v>536</v>
@@ -1874,19 +1905,19 @@
         <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="6">
         <v>153</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>38</v>
@@ -1898,7 +1929,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>41</v>
@@ -1918,16 +1949,16 @@
         <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>34</v>
@@ -1946,31 +1977,31 @@
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="6">
         <v>1420</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>41</v>
@@ -1979,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P30" s="16"/>
       <c r="R30" s="14"/>
@@ -1995,16 +2026,16 @@
         <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>34</v>
